--- a/Clientes/Grupo La Fuente/Copia de CargarNormasISO REV.00 07.02.2022.xlsx
+++ b/Clientes/Grupo La Fuente/Copia de CargarNormasISO REV.00 07.02.2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ed\Documents\GitHub\InteractSolutions\Clientes\Grupo La Fuente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\darnez\Desktop\DAC\03. Proyectos\01. BPMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85188B4E-450C-4D83-A7D7-00CE88DB1910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9E4435-9B4E-4CEA-80EE-B0DB0FF4238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,7 @@
     <sheet name="Planilha2 14001-2015" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3 45001-2018" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2120,7 +2108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>0.20905092592592592</v>
       </c>
@@ -3486,13 +3474,13 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="157.28515625" customWidth="1"/>
   </cols>
